--- a/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57_AC_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>519666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>491479</v>
+        <v>496609</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>541309</v>
+        <v>541486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7487860013947012</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7081707323024494</v>
+        <v>0.7155627583523186</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7799701689469317</v>
+        <v>0.7802260977323656</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>524</v>
@@ -765,19 +765,19 @@
         <v>522888</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>496324</v>
+        <v>501070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>544597</v>
+        <v>545400</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7596246373948554</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.721033363276439</v>
+        <v>0.727928424995311</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7911624957090232</v>
+        <v>0.7923282599904231</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1037</v>
@@ -786,19 +786,19 @@
         <v>1042555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1012406</v>
+        <v>1006362</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1071900</v>
+        <v>1074854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7541831260338349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7323736872925497</v>
+        <v>0.7280014040943478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7754112114630617</v>
+        <v>0.7775481189814388</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>174346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>152703</v>
+        <v>152526</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202533</v>
+        <v>197403</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2512139986052987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2200298310530682</v>
+        <v>0.2197739022676344</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2918292676975502</v>
+        <v>0.2844372416476812</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>172</v>
@@ -836,19 +836,19 @@
         <v>165463</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>143754</v>
+        <v>142951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192027</v>
+        <v>187281</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2403753626051446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2088375042909767</v>
+        <v>0.2076717400095768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2789666367235611</v>
+        <v>0.2720715750046889</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>342</v>
@@ -857,19 +857,19 @@
         <v>339808</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>310463</v>
+        <v>307509</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369957</v>
+        <v>376001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2458168739661651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2245887885369383</v>
+        <v>0.2224518810185611</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2676263127074502</v>
+        <v>0.2719985959056516</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>649077</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>616324</v>
+        <v>619027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>678924</v>
+        <v>679733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.675617481500198</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6415258560753603</v>
+        <v>0.6443390986190112</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7066858944901421</v>
+        <v>0.7075273882484444</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>649</v>
@@ -982,19 +982,19 @@
         <v>703410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>676931</v>
+        <v>673679</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>730593</v>
+        <v>731424</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.727232651893153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6998567110736346</v>
+        <v>0.696494935294901</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7553359502124288</v>
+        <v>0.7561958990278147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1253</v>
@@ -1003,19 +1003,19 @@
         <v>1352487</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1311309</v>
+        <v>1305944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1392502</v>
+        <v>1391026</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7015124325373979</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6801544639514266</v>
+        <v>0.6773718349520852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7222678325954547</v>
+        <v>0.7215020139346775</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>311639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>281792</v>
+        <v>280983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>344392</v>
+        <v>341689</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3243825184998021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2933141055098581</v>
+        <v>0.2924726117515555</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3584741439246399</v>
+        <v>0.3556609013809889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>258</v>
@@ -1053,19 +1053,19 @@
         <v>263832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>236649</v>
+        <v>235818</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>290311</v>
+        <v>293563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.272767348106847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2446640497875714</v>
+        <v>0.2438041009721852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3001432889263654</v>
+        <v>0.303505064705099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>549</v>
@@ -1074,19 +1074,19 @@
         <v>575471</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>535456</v>
+        <v>536932</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>616649</v>
+        <v>622014</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.298487567462602</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2777321674045453</v>
+        <v>0.2784979860653228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3198455360485733</v>
+        <v>0.3226281650479149</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>419399</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>393842</v>
+        <v>394363</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>444342</v>
+        <v>449333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6181183446773065</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5804526089683488</v>
+        <v>0.581219469996474</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6548803670715702</v>
+        <v>0.6622363588205801</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>454</v>
@@ -1199,19 +1199,19 @@
         <v>445968</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>420855</v>
+        <v>419597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>471135</v>
+        <v>469925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6521519806634133</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6154277548191674</v>
+        <v>0.6135888184720231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6889536708437284</v>
+        <v>0.6871848371820931</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>856</v>
@@ -1220,19 +1220,19 @@
         <v>865367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>832714</v>
+        <v>830898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>903693</v>
+        <v>901539</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6352017650405543</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6112337294828734</v>
+        <v>0.6099003905065824</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6633338439039485</v>
+        <v>0.661753173204134</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>259110</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>234167</v>
+        <v>229176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284667</v>
+        <v>284146</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3818816553226934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3451196329284298</v>
+        <v>0.3377636411794198</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4195473910316512</v>
+        <v>0.4187805300035261</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -1270,19 +1270,19 @@
         <v>237873</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>212706</v>
+        <v>213916</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>262986</v>
+        <v>264244</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3478480193365868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3110463291562716</v>
+        <v>0.3128151628179069</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3845722451808326</v>
+        <v>0.386411181527977</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>481</v>
@@ -1291,19 +1291,19 @@
         <v>496983</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>458657</v>
+        <v>460811</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>529636</v>
+        <v>531452</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3647982349594458</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3366661560960515</v>
+        <v>0.338246826795866</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3887662705171263</v>
+        <v>0.3900996094934175</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>637725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>610300</v>
+        <v>609272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>667098</v>
+        <v>663362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6779459388929991</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6487917112352097</v>
+        <v>0.6476985042229081</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7091712158632262</v>
+        <v>0.7051997180314483</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>682</v>
@@ -1416,19 +1416,19 @@
         <v>716444</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>687002</v>
+        <v>688693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>748657</v>
+        <v>745279</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6904605899157876</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6620859340918915</v>
+        <v>0.6637163478537597</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7215053279009068</v>
+        <v>0.7182498789317086</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1353</v>
@@ -1437,19 +1437,19 @@
         <v>1354169</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1311986</v>
+        <v>1313819</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1392802</v>
+        <v>1396001</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6845099460593626</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6631874532182241</v>
+        <v>0.664113682792051</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.70403838769575</v>
+        <v>0.7056555344334566</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>302947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>273574</v>
+        <v>277310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>330372</v>
+        <v>331400</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3220540611070009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2908287841367739</v>
+        <v>0.2948002819685517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3512082887647903</v>
+        <v>0.3523014957770918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>314</v>
@@ -1487,19 +1487,19 @@
         <v>321188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288975</v>
+        <v>292353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>350630</v>
+        <v>348939</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3095394100842124</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2784946720990932</v>
+        <v>0.2817501210682913</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3379140659081084</v>
+        <v>0.3362836521462402</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>636</v>
@@ -1508,19 +1508,19 @@
         <v>624135</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>585502</v>
+        <v>582303</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>666318</v>
+        <v>664485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3154900539406374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2959616123042499</v>
+        <v>0.2943444655665434</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3368125467817759</v>
+        <v>0.3358863172079488</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>2225867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2172647</v>
+        <v>2175890</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2285668</v>
+        <v>2281020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.679880420602902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6636245870597266</v>
+        <v>0.6646153448151532</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6981465982953924</v>
+        <v>0.6967266276633581</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2309</v>
@@ -1633,19 +1633,19 @@
         <v>2388711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2336669</v>
+        <v>2342531</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2442515</v>
+        <v>2441673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7073331137246123</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6919228404733847</v>
+        <v>0.6936585122537485</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7232654410224321</v>
+        <v>0.7230161348038332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4499</v>
@@ -1654,19 +1654,19 @@
         <v>4614577</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4534588</v>
+        <v>4538822</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4687861</v>
+        <v>4692892</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6938196647783316</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6817929174416216</v>
+        <v>0.6824295620488862</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7048380959025032</v>
+        <v>0.7055946611859762</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1048042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>988241</v>
+        <v>992889</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1101262</v>
+        <v>1098019</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3201195793970981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3018534017046076</v>
+        <v>0.3032733723366418</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3363754129402733</v>
+        <v>0.3353846551848466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>986</v>
@@ -1704,19 +1704,19 @@
         <v>988355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>934551</v>
+        <v>935393</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1040397</v>
+        <v>1034535</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2926668862753878</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2767345589775679</v>
+        <v>0.2769838651961669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3080771595266153</v>
+        <v>0.3063414877462515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2008</v>
@@ -1725,19 +1725,19 @@
         <v>2036398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1963114</v>
+        <v>1958083</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2116387</v>
+        <v>2112153</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3061803352216684</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2951619040974974</v>
+        <v>0.2944053388140236</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3182070825583785</v>
+        <v>0.3175704379511138</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>430976</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>403386</v>
+        <v>406126</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>457142</v>
+        <v>457069</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6176108586483934</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5780728476027642</v>
+        <v>0.5819995239841036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6551069813589856</v>
+        <v>0.6550026399881347</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>454</v>
@@ -2090,19 +2090,19 @@
         <v>489113</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>466320</v>
+        <v>462022</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>513746</v>
+        <v>514546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7045712603208242</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6717373681717835</v>
+        <v>0.6655456524115491</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7400546242471233</v>
+        <v>0.7412066409743777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>864</v>
@@ -2111,19 +2111,19 @@
         <v>920090</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>886355</v>
+        <v>883122</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>956278</v>
+        <v>956461</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6609782372606485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6367441395270599</v>
+        <v>0.6344212621933477</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.686975085071418</v>
+        <v>0.6871069994332447</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>266836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>240670</v>
+        <v>240743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>294426</v>
+        <v>291686</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3823891413516066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3448930186410146</v>
+        <v>0.344997360011865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4219271523972363</v>
+        <v>0.4180004760158964</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>194</v>
@@ -2161,19 +2161,19 @@
         <v>205087</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180454</v>
+        <v>179654</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227880</v>
+        <v>232178</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2954287396791758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2599453757528766</v>
+        <v>0.2587933590256222</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3282626318282164</v>
+        <v>0.3344543475884508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>452</v>
@@ -2182,19 +2182,19 @@
         <v>471922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>435734</v>
+        <v>435551</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>505657</v>
+        <v>508890</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3390217627393514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3130249149285818</v>
+        <v>0.3128930005667552</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3632558604729399</v>
+        <v>0.3655787378066522</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>664788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>632646</v>
+        <v>631563</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>695847</v>
+        <v>692097</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6593112774212144</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6274345246563392</v>
+        <v>0.6263601111251492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6901151456633527</v>
+        <v>0.6863960829293417</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>681</v>
@@ -2307,19 +2307,19 @@
         <v>750691</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>721688</v>
+        <v>720012</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>780952</v>
+        <v>780789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.730168690786938</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7019587229828284</v>
+        <v>0.7003283831855889</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7596027975525194</v>
+        <v>0.7594443548976123</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1288</v>
@@ -2328,19 +2328,19 @@
         <v>1415478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1377629</v>
+        <v>1371129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1456013</v>
+        <v>1457651</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6950844572180693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6764981459196944</v>
+        <v>0.6733061548864512</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7149893568434557</v>
+        <v>0.715793859948873</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>343518</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>312459</v>
+        <v>316209</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>375660</v>
+        <v>376743</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3406887225787856</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3098848543366471</v>
+        <v>0.3136039170706583</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3725654753436608</v>
+        <v>0.3736398888748508</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>255</v>
@@ -2378,19 +2378,19 @@
         <v>277415</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>247154</v>
+        <v>247317</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>306418</v>
+        <v>308094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2698313092130619</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2403972024474806</v>
+        <v>0.2405556451023876</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2980412770171716</v>
+        <v>0.2996716168144111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>575</v>
@@ -2399,19 +2399,19 @@
         <v>620934</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>580399</v>
+        <v>578761</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>658783</v>
+        <v>665283</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3049155427819307</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2850106431565443</v>
+        <v>0.2842061400511271</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3235018540803056</v>
+        <v>0.3266938451135489</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>476937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>450561</v>
+        <v>450093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>508135</v>
+        <v>504255</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6356461108752005</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6004930296899023</v>
+        <v>0.59986920105497</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6772254048487488</v>
+        <v>0.6720540111508303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>477</v>
@@ -2524,19 +2524,19 @@
         <v>526913</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>499491</v>
+        <v>499111</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>553174</v>
+        <v>554461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.680969850698703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.645531132461139</v>
+        <v>0.6450390783067191</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7149099830614374</v>
+        <v>0.7165721848712522</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>904</v>
@@ -2545,19 +2545,19 @@
         <v>1003850</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>965055</v>
+        <v>966201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1044830</v>
+        <v>1041242</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6586566387363455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6332017162989507</v>
+        <v>0.6339538925620634</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6855445703724707</v>
+        <v>0.6831908089231196</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>273382</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242184</v>
+        <v>246064</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299758</v>
+        <v>300226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3643538891247994</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3227745951512511</v>
+        <v>0.3279459888491695</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3995069703100976</v>
+        <v>0.4001307989450299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -2595,19 +2595,19 @@
         <v>246855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>220594</v>
+        <v>219307</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>274277</v>
+        <v>274657</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.319030149301297</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2850900169385625</v>
+        <v>0.2834278151287479</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3544688675388609</v>
+        <v>0.3549609216932809</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>480</v>
@@ -2616,19 +2616,19 @@
         <v>520237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>479257</v>
+        <v>482845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559032</v>
+        <v>557886</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3413433612636545</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3144554296275289</v>
+        <v>0.3168091910768802</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3667982837010492</v>
+        <v>0.3660461074379364</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>682675</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>651379</v>
+        <v>655102</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>709776</v>
+        <v>709260</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.72427773952152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6910744908849289</v>
+        <v>0.6950236672049093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7530295349917947</v>
+        <v>0.7524824105824462</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>783</v>
@@ -2741,19 +2741,19 @@
         <v>823660</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>796619</v>
+        <v>795046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>849563</v>
+        <v>849601</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7903403392900313</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.764393798078729</v>
+        <v>0.762884008332224</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8151963805920555</v>
+        <v>0.8152321111548152</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1437</v>
@@ -2762,19 +2762,19 @@
         <v>1506335</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1463247</v>
+        <v>1467283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1542646</v>
+        <v>1542553</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7589666367029617</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7372569416099318</v>
+        <v>0.7392903825974283</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7772620239149121</v>
+        <v>0.7772153515173246</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>259885</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>232784</v>
+        <v>233300</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>291181</v>
+        <v>287458</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2757222604784801</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.246970465008205</v>
+        <v>0.2475175894175538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3089255091150708</v>
+        <v>0.3049763327950907</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>211</v>
@@ -2812,19 +2812,19 @@
         <v>218498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>192595</v>
+        <v>192557</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>245539</v>
+        <v>247112</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2096596607099687</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1848036194079441</v>
+        <v>0.1847678888451848</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.235606201921271</v>
+        <v>0.237115991667776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>462</v>
@@ -2833,19 +2833,19 @@
         <v>478383</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>442072</v>
+        <v>442165</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>521471</v>
+        <v>517435</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2410333632970383</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2227379760850878</v>
+        <v>0.2227846484826754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2627430583900681</v>
+        <v>0.2607096174025717</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>2255376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2198882</v>
+        <v>2200250</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2312698</v>
+        <v>2313797</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6635417280835282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6469209314217675</v>
+        <v>0.6473233637953443</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6804059993119072</v>
+        <v>0.6807293653718098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2395</v>
@@ -2958,19 +2958,19 @@
         <v>2590376</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2537691</v>
+        <v>2534895</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2647232</v>
+        <v>2644422</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7321103844907102</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7172201763719905</v>
+        <v>0.716429973258249</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7481793879751446</v>
+        <v>0.7473851490669549</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4493</v>
@@ -2979,19 +2979,19 @@
         <v>4845753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4764780</v>
+        <v>4764479</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4927343</v>
+        <v>4922122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6985141656119588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6868419813374518</v>
+        <v>0.6867985059817573</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7102753815724352</v>
+        <v>0.7095227480948914</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1143621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1086299</v>
+        <v>1085200</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1200115</v>
+        <v>1198747</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3364582719164718</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3195940006880926</v>
+        <v>0.3192706346281901</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3530790685782323</v>
+        <v>0.3526766362046555</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>885</v>
@@ -3029,19 +3029,19 @@
         <v>947856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>891000</v>
+        <v>893810</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1000541</v>
+        <v>1003337</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2678896155092897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2518206120248553</v>
+        <v>0.2526148509330451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2827798236280095</v>
+        <v>0.283570026741751</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1969</v>
@@ -3050,19 +3050,19 @@
         <v>2091476</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2009886</v>
+        <v>2015107</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2172449</v>
+        <v>2172750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3014858343880412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2897246184275649</v>
+        <v>0.2904772519051086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3131580186625481</v>
+        <v>0.3132014940182427</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>527490</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>506578</v>
+        <v>504847</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>549331</v>
+        <v>547030</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7841918967788736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7531027159485811</v>
+        <v>0.7505306984224221</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8166620079822233</v>
+        <v>0.8132411463982153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>549</v>
@@ -3415,19 +3415,19 @@
         <v>557629</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>538990</v>
+        <v>536770</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>575945</v>
+        <v>575885</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.832339632078936</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8045174683360962</v>
+        <v>0.8012041255477815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8596783706049218</v>
+        <v>0.8595891971235617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1060</v>
@@ -3436,19 +3436,19 @@
         <v>1085119</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1057636</v>
+        <v>1055566</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1114140</v>
+        <v>1110855</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8082173418764349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7877477800574084</v>
+        <v>0.7862054053175043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8298325930683502</v>
+        <v>0.8273859089806246</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>145164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>123323</v>
+        <v>125624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166076</v>
+        <v>167807</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2158081032211264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1833379920177767</v>
+        <v>0.1867588536017849</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.246897284051419</v>
+        <v>0.249469301577578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -3486,19 +3486,19 @@
         <v>112325</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94009</v>
+        <v>94069</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>130964</v>
+        <v>133184</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.167660367921064</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1403216293950783</v>
+        <v>0.140410802876438</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1954825316639045</v>
+        <v>0.1987958744522182</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -3507,19 +3507,19 @@
         <v>257489</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>228468</v>
+        <v>231753</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284972</v>
+        <v>287042</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1917826581235652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.17016740693165</v>
+        <v>0.1726140910193754</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2122522199425916</v>
+        <v>0.2137945946824957</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>779541</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>751884</v>
+        <v>749541</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>805273</v>
+        <v>805036</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7654912522555418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7383322199590476</v>
+        <v>0.7360320217860107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7907590671522824</v>
+        <v>0.7905271583486461</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>802</v>
@@ -3632,19 +3632,19 @@
         <v>864095</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>838010</v>
+        <v>837987</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>888826</v>
+        <v>884942</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8308989964525537</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8058163026338074</v>
+        <v>0.805794144774399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8546799338411641</v>
+        <v>0.8509452426936711</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1528</v>
@@ -3653,19 +3653,19 @@
         <v>1643637</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1605410</v>
+        <v>1603308</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1680013</v>
+        <v>1680432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.798538287485517</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7799664949000776</v>
+        <v>0.7789448613198031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8162108764177417</v>
+        <v>0.8164147573884609</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>238813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>213081</v>
+        <v>213318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>266470</v>
+        <v>268813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2345087477444582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2092409328477177</v>
+        <v>0.209472841651354</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2616677800409525</v>
+        <v>0.2639679782139894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>172</v>
@@ -3703,19 +3703,19 @@
         <v>175857</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>151126</v>
+        <v>155010</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201942</v>
+        <v>201965</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1691010035474462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1453200661588362</v>
+        <v>0.1490547573063292</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1941836973661932</v>
+        <v>0.1942058552256014</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>394</v>
@@ -3724,19 +3724,19 @@
         <v>414670</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>378294</v>
+        <v>377875</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>452897</v>
+        <v>454999</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.201461712514483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.183789123582258</v>
+        <v>0.183585242611539</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2200335050999223</v>
+        <v>0.2210551386801969</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>628594</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>606876</v>
+        <v>608009</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>648077</v>
+        <v>649154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8362366619082762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8073445152199382</v>
+        <v>0.808851214638696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8621551940723071</v>
+        <v>0.8635885606006665</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>607</v>
@@ -3849,19 +3849,19 @@
         <v>649950</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>628856</v>
+        <v>628910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>669196</v>
+        <v>670401</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8378293029800066</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8106376460391037</v>
+        <v>0.8107067593760445</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8626383120874952</v>
+        <v>0.8641917596419838</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1183</v>
@@ -3870,19 +3870,19 @@
         <v>1278544</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1249103</v>
+        <v>1248227</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1311045</v>
+        <v>1307180</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.837045526310623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8177713949052101</v>
+        <v>0.8171975229432213</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.85832390386492</v>
+        <v>0.8557934835732269</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>123100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>103617</v>
+        <v>102540</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>144818</v>
+        <v>143685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1637633380917238</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1378448059276928</v>
+        <v>0.1364114393993336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1926554847800619</v>
+        <v>0.191148785361304</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -3920,19 +3920,19 @@
         <v>125805</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106559</v>
+        <v>105354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>146899</v>
+        <v>146845</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1621706970199935</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1373616879125049</v>
+        <v>0.1358082403580162</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1893623539608968</v>
+        <v>0.1892932406239553</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>234</v>
@@ -3941,19 +3941,19 @@
         <v>248904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>216403</v>
+        <v>220268</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>278345</v>
+        <v>279221</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.162954473689377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1416760961350801</v>
+        <v>0.144206516426773</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1822286050947897</v>
+        <v>0.1828024770567784</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>734044</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>709914</v>
+        <v>707160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>757882</v>
+        <v>759789</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7857071712719473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7598791338003953</v>
+        <v>0.756931625516493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8112236733442246</v>
+        <v>0.8132647211683819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>750</v>
@@ -4066,19 +4066,19 @@
         <v>819532</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>793595</v>
+        <v>791217</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>845701</v>
+        <v>845671</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.791038439464001</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7660039801730029</v>
+        <v>0.7637079054750415</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8162982155676275</v>
+        <v>0.8162688879994213</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1478</v>
@@ -4087,19 +4087,19 @@
         <v>1553575</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1517035</v>
+        <v>1514188</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1591522</v>
+        <v>1588086</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7885104985907553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7699647661623599</v>
+        <v>0.7685201629632276</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8077706157619865</v>
+        <v>0.8060266413294601</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>200202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>176364</v>
+        <v>174457</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224332</v>
+        <v>227086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2142928287280527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1887763266557755</v>
+        <v>0.1867352788316182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2401208661996048</v>
+        <v>0.2430683744835072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>202</v>
@@ -4137,19 +4137,19 @@
         <v>216488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>190319</v>
+        <v>190349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>242425</v>
+        <v>244803</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2089615605359991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1837017844323725</v>
+        <v>0.1837311120005792</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2339960198269972</v>
+        <v>0.236292094524959</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>403</v>
@@ -4158,19 +4158,19 @@
         <v>416690</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>378743</v>
+        <v>382179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>453230</v>
+        <v>456077</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2114895014092447</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1922293842380135</v>
+        <v>0.1939733586705399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2300352338376401</v>
+        <v>0.2314798370367723</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>2669669</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2623735</v>
+        <v>2620605</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2717302</v>
+        <v>2716788</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7905566615005207</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7769545681203515</v>
+        <v>0.7760277738373536</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8046621778443624</v>
+        <v>0.8045098409582538</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2708</v>
@@ -4283,19 +4283,19 @@
         <v>2891205</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2848089</v>
+        <v>2842740</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2939084</v>
+        <v>2938829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8209733533669299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8087303392100396</v>
+        <v>0.8072113083217991</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8345687847216432</v>
+        <v>0.8344963250272823</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5249</v>
@@ -4304,19 +4304,19 @@
         <v>5560875</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5496609</v>
+        <v>5494334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5634443</v>
+        <v>5625713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8060840761063175</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7967682503774239</v>
+        <v>0.7964385587286492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8167482276643768</v>
+        <v>0.8154826930405072</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>707279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>659646</v>
+        <v>660160</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>753213</v>
+        <v>756343</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2094433384994793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1953378221556376</v>
+        <v>0.1954901590417462</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2230454318796486</v>
+        <v>0.2239722261626465</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>609</v>
@@ -4354,19 +4354,19 @@
         <v>630475</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>582596</v>
+        <v>582851</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>673591</v>
+        <v>678940</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1790266466330701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1654312152783572</v>
+        <v>0.1655036749727176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1912696607899606</v>
+        <v>0.1927886916782008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1284</v>
@@ -4375,19 +4375,19 @@
         <v>1337754</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1264186</v>
+        <v>1272916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1402020</v>
+        <v>1404295</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1939159238936825</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1832517723356232</v>
+        <v>0.1845173069594932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.203231749622576</v>
+        <v>0.2035614412713515</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>404045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>377359</v>
+        <v>372047</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431944</v>
+        <v>432321</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5902172313637579</v>
+        <v>0.5902172313637578</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5512356643738368</v>
+        <v>0.5434750997394181</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6309711630589464</v>
+        <v>0.6315218910663448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>801</v>
@@ -4740,19 +4740,19 @@
         <v>445842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>421853</v>
+        <v>423901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>467675</v>
+        <v>466487</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6213069512550905</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.587875679244348</v>
+        <v>0.5907309120505668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6517318388401572</v>
+        <v>0.6500767987425523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1261</v>
@@ -4761,19 +4761,19 @@
         <v>849887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>807110</v>
+        <v>813045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>884279</v>
+        <v>882911</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.60612814104478</v>
+        <v>0.6061281410447799</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5756203913900609</v>
+        <v>0.5798532675306882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6306558495863335</v>
+        <v>0.6296806611563823</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>280525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>252626</v>
+        <v>252249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307211</v>
+        <v>312523</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4097827686362421</v>
+        <v>0.409782768636242</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3690288369410537</v>
+        <v>0.3684781089336556</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4487643356261635</v>
+        <v>0.456524900260582</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>411</v>
@@ -4811,19 +4811,19 @@
         <v>271746</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>249913</v>
+        <v>251101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>295735</v>
+        <v>293687</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3786930487449096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3482681611598428</v>
+        <v>0.3499232012574477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.412124320755652</v>
+        <v>0.4092690879494335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>675</v>
@@ -4832,19 +4832,19 @@
         <v>552270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>517878</v>
+        <v>519246</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>595047</v>
+        <v>589112</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.39387185895522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3693441504136665</v>
+        <v>0.3703193388436162</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4243796086099388</v>
+        <v>0.4201467324693116</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>671284</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>632450</v>
+        <v>636415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>704169</v>
+        <v>706907</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6468396655048136</v>
+        <v>0.6468396655048135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6094197146666079</v>
+        <v>0.6132399270638721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6785268750530501</v>
+        <v>0.6811655442322108</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1050</v>
@@ -4957,19 +4957,19 @@
         <v>713274</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>683456</v>
+        <v>685353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>741681</v>
+        <v>740081</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6738248376028487</v>
+        <v>0.6738248376028488</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6456559074068328</v>
+        <v>0.6474478178366686</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7006604165087061</v>
+        <v>0.6991488689520846</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1689</v>
@@ -4978,19 +4978,19 @@
         <v>1384559</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1339634</v>
+        <v>1341743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1430534</v>
+        <v>1427895</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6604658288979599</v>
+        <v>0.66046582889796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6390357972080684</v>
+        <v>0.6400415900843242</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6823969457201418</v>
+        <v>0.6811379513806853</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>366507</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>333622</v>
+        <v>330884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>405341</v>
+        <v>401376</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3531603344951862</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3214731249469501</v>
+        <v>0.3188344557677893</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3905802853333927</v>
+        <v>0.3867600729361278</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>449</v>
@@ -5028,19 +5028,19 @@
         <v>345271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>316864</v>
+        <v>318464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375089</v>
+        <v>373192</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3261751623971512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2993395834912939</v>
+        <v>0.3008511310479155</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3543440925931667</v>
+        <v>0.3525521821633314</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>764</v>
@@ -5049,19 +5049,19 @@
         <v>711778</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>665803</v>
+        <v>668442</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>756703</v>
+        <v>754594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3395341711020401</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3176030542798581</v>
+        <v>0.3188620486193149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3609642027919316</v>
+        <v>0.3599584099156758</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>518495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>484144</v>
+        <v>489775</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>551397</v>
+        <v>551067</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6525551076462236</v>
+        <v>0.6525551076462235</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6093224389187722</v>
+        <v>0.6164099409330581</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6939639468902586</v>
+        <v>0.6935485554905696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>679</v>
@@ -5174,19 +5174,19 @@
         <v>519314</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>492630</v>
+        <v>493725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>544670</v>
+        <v>543957</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6464142939060673</v>
+        <v>0.6464142939060675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6131991597843955</v>
+        <v>0.6145626101283951</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6779759734400851</v>
+        <v>0.6770879387721629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1121</v>
@@ -5195,19 +5195,19 @@
         <v>1037809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>997749</v>
+        <v>996486</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1075191</v>
+        <v>1078782</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6494677614970091</v>
+        <v>0.6494677614970092</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6243975632551897</v>
+        <v>0.6236076212667874</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6728612439036276</v>
+        <v>0.6751087464298759</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>276066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243164</v>
+        <v>243494</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310417</v>
+        <v>304786</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3474448923537765</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3060360531097407</v>
+        <v>0.3064514445094303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3906775610812276</v>
+        <v>0.383590059066942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>356</v>
@@ -5245,19 +5245,19 @@
         <v>284063</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>258707</v>
+        <v>259420</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>310747</v>
+        <v>309652</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3535857060939325</v>
+        <v>0.3535857060939326</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3220240265599149</v>
+        <v>0.3229120612278374</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3868008402156044</v>
+        <v>0.385437389871605</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -5266,19 +5266,19 @@
         <v>560129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>522747</v>
+        <v>519156</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>600189</v>
+        <v>601452</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3505322385029909</v>
+        <v>0.3505322385029908</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3271387560963725</v>
+        <v>0.3248912535701241</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3756024367448105</v>
+        <v>0.3763923787332126</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>589820</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>555812</v>
+        <v>557851</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>625181</v>
+        <v>623488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6022052028107285</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5674825012053027</v>
+        <v>0.5695651080068088</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.638308763756072</v>
+        <v>0.6365802162975667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>968</v>
@@ -5391,19 +5391,19 @@
         <v>673503</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>642249</v>
+        <v>641160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>705865</v>
+        <v>702615</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.6107194431630882</v>
+        <v>0.6107194431630883</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5823791399178125</v>
+        <v>0.5813915761605225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6400646284104963</v>
+        <v>0.6371170991500242</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1605</v>
@@ -5412,19 +5412,19 @@
         <v>1263324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1216908</v>
+        <v>1215322</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1308592</v>
+        <v>1307973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6067145500370318</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.584422942254965</v>
+        <v>0.583661578752209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6284544324985263</v>
+        <v>0.6281571991522348</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>389614</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354253</v>
+        <v>355946</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>423622</v>
+        <v>421583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3977947971892714</v>
+        <v>0.3977947971892715</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3616912362439278</v>
+        <v>0.3634197837024333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4325174987946973</v>
+        <v>0.4304348919931911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>573</v>
@@ -5462,19 +5462,19 @@
         <v>429300</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>396938</v>
+        <v>400188</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>460554</v>
+        <v>461643</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3892805568369115</v>
+        <v>0.3892805568369117</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3599353715895039</v>
+        <v>0.3628829008499759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4176208600821875</v>
+        <v>0.4186084238394776</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>930</v>
@@ -5483,19 +5483,19 @@
         <v>818914</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>773646</v>
+        <v>774265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>865330</v>
+        <v>866916</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3932854499629681</v>
+        <v>0.3932854499629682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3715455675014738</v>
+        <v>0.3718428008477652</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4155770577450349</v>
+        <v>0.4163384212477909</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>2183645</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2122202</v>
+        <v>2120256</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2246648</v>
+        <v>2250320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6245486735714438</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6069750660154467</v>
+        <v>0.6064186695381758</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6425681208613346</v>
+        <v>0.6436184362420539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3498</v>
@@ -5608,19 +5608,19 @@
         <v>2351934</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2300136</v>
+        <v>2297788</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2400795</v>
+        <v>2406943</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6387110336007531</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6246444607625776</v>
+        <v>0.6240067219314426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.651980102528775</v>
+        <v>0.6536498487553185</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5676</v>
@@ -5629,19 +5629,19 @@
         <v>4535579</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4451718</v>
+        <v>4450206</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4620242</v>
+        <v>4620630</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6318132847406458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6201313511070952</v>
+        <v>0.6199207425535092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6436070054781564</v>
+        <v>0.6436609666527274</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>1312712</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1249709</v>
+        <v>1246037</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1374155</v>
+        <v>1376101</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3754513264285562</v>
+        <v>0.3754513264285561</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3574318791386655</v>
+        <v>0.3563815637579459</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.393024933984553</v>
+        <v>0.393581330461824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1789</v>
@@ -5679,19 +5679,19 @@
         <v>1330379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1281518</v>
+        <v>1275370</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1382177</v>
+        <v>1384525</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3612889663992469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3480198974712253</v>
+        <v>0.3463501512446814</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3753555392374225</v>
+        <v>0.3759932780685575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2951</v>
@@ -5700,19 +5700,19 @@
         <v>2643091</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2558428</v>
+        <v>2558040</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>2726952</v>
+        <v>2728464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3681867152593543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3563929945218431</v>
+        <v>0.3563390333472724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3798686488929045</v>
+        <v>0.3800792574464908</v>
       </c>
     </row>
     <row r="18">
